--- a/ToyInstance.xlsx
+++ b/ToyInstance.xlsx
@@ -12,14 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="NOD" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="4" r:id="rId1"/>
     <sheet name="NEst" sheetId="2" r:id="rId2"/>
     <sheet name="NSink" sheetId="3" r:id="rId3"/>
-    <sheet name="A" sheetId="4" r:id="rId4"/>
-    <sheet name="Stations" sheetId="9" r:id="rId5"/>
-    <sheet name="b" sheetId="7" r:id="rId6"/>
-    <sheet name="c" sheetId="8" r:id="rId7"/>
-    <sheet name="Params" sheetId="5" r:id="rId8"/>
+    <sheet name="Stations" sheetId="9" r:id="rId4"/>
+    <sheet name="b" sheetId="7" r:id="rId5"/>
+    <sheet name="c" sheetId="8" r:id="rId6"/>
+    <sheet name="Params" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -31,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="29">
-  <si>
-    <t>NOD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="28">
   <si>
     <t>OD1</t>
   </si>
@@ -168,10 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -453,32 +448,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,22 +907,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -533,12 +942,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -548,446 +957,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A31"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -996,65 +1015,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1066,30 +1026,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1100,13 +1060,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1117,13 +1077,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1134,13 +1094,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1151,13 +1111,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1168,13 +1128,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1185,13 +1145,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1202,13 +1162,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1219,13 +1179,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1236,13 +1196,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1253,13 +1213,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1270,13 +1230,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1287,13 +1247,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1304,13 +1264,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1321,13 +1281,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1338,13 +1298,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1355,13 +1315,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1372,13 +1332,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1389,13 +1349,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1406,13 +1366,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1423,13 +1383,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1440,13 +1400,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1457,13 +1417,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1474,19 +1434,210 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1">
         <v>-80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1496,249 +1647,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <f>2</f>
@@ -1747,15 +1674,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1763,7 +1690,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
